--- a/docs/trends-paper/wave-counts/canada-wave-counts/second_canada_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/canada-wave-counts/second_canada_wave_counts.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,7 +425,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>41694</v>
+        <v>41693</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>41696</v>
+        <v>41700</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>41703</v>
+        <v>41707</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>41710</v>
+        <v>41714</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>41717</v>
+        <v>41721</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>41724</v>
+        <v>41728</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>41731</v>
+        <v>41735</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>41738</v>
+        <v>41742</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>41745</v>
+        <v>41749</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>41752</v>
+        <v>41756</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>41759</v>
+        <v>41763</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>41766</v>
+        <v>41770</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>41773</v>
+        <v>41777</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>41780</v>
+        <v>41784</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>41787</v>
+        <v>41791</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>41794</v>
+        <v>41798</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>41801</v>
+        <v>41805</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>41808</v>
+        <v>41812</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>41815</v>
+        <v>41819</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>41822</v>
+        <v>41826</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>41829</v>
+        <v>41833</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>41836</v>
+        <v>41840</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>41843</v>
+        <v>41847</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>41850</v>
+        <v>41854</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>41857</v>
+        <v>41861</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>41864</v>
+        <v>41868</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>41871</v>
+        <v>41875</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41878</v>
+        <v>41882</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41885</v>
+        <v>41889</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41892</v>
+        <v>41896</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41899</v>
+        <v>41903</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41906</v>
+        <v>41910</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41913</v>
+        <v>41917</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41920</v>
+        <v>41924</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41927</v>
+        <v>41931</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41934</v>
+        <v>41938</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41941</v>
+        <v>41945</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -721,23 +721,23 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41948</v>
+        <v>41952</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41953</v>
+        <v>41959</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41955</v>
+        <v>41966</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41962</v>
+        <v>41973</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41969</v>
+        <v>41980</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41976</v>
+        <v>41987</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41983</v>
+        <v>41994</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41990</v>
+        <v>42001</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41997</v>
+        <v>42008</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>42004</v>
+        <v>42015</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>42011</v>
+        <v>42022</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>42018</v>
+        <v>42029</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>42025</v>
+        <v>42036</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>42032</v>
+        <v>42043</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>42039</v>
+        <v>42050</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -841,47 +841,47 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>42046</v>
+        <v>42057</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>42053</v>
+        <v>42064</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>42058</v>
+        <v>42071</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>42060</v>
+        <v>42078</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>42065</v>
+        <v>42085</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>42067</v>
+        <v>42092</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -889,15 +889,15 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>42072</v>
+        <v>42099</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>42074</v>
+        <v>42106</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -905,15 +905,15 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>42079</v>
+        <v>42113</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>42081</v>
+        <v>42120</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -921,15 +921,15 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42086</v>
+        <v>42127</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42088</v>
+        <v>42134</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42095</v>
+        <v>42141</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42102</v>
+        <v>42148</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42109</v>
+        <v>42155</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42116</v>
+        <v>42162</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42123</v>
+        <v>42169</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42130</v>
+        <v>42176</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42137</v>
+        <v>42183</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42144</v>
+        <v>42190</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42151</v>
+        <v>42197</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42158</v>
+        <v>42204</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42165</v>
+        <v>42211</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42172</v>
+        <v>42218</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42179</v>
+        <v>42225</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42186</v>
+        <v>42232</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42193</v>
+        <v>42239</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42200</v>
+        <v>42246</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1065,65 +1065,9 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42207</v>
+        <v>42253</v>
       </c>
       <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2">
-        <v>42214</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2">
-        <v>42221</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2">
-        <v>42228</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2">
-        <v>42235</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2">
-        <v>42242</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2">
-        <v>42249</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2">
-        <v>42254</v>
-      </c>
-      <c r="B89">
         <v>1</v>
       </c>
     </row>
@@ -1157,7 +1101,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>41701</v>
+        <v>41700</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1165,7 +1109,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>41708</v>
+        <v>41707</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1173,7 +1117,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>41715</v>
+        <v>41714</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1181,7 +1125,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>41722</v>
+        <v>41721</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1189,7 +1133,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>41729</v>
+        <v>41728</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1197,7 +1141,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>41736</v>
+        <v>41735</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1205,7 +1149,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>41743</v>
+        <v>41742</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1213,7 +1157,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>41750</v>
+        <v>41749</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1221,7 +1165,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>41757</v>
+        <v>41756</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1229,7 +1173,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>41764</v>
+        <v>41763</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1237,7 +1181,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>41771</v>
+        <v>41770</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1245,7 +1189,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>41778</v>
+        <v>41777</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1253,7 +1197,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>41785</v>
+        <v>41784</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1261,7 +1205,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>41792</v>
+        <v>41791</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1269,7 +1213,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>41799</v>
+        <v>41798</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1277,7 +1221,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>41806</v>
+        <v>41805</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1285,7 +1229,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>41813</v>
+        <v>41812</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1293,7 +1237,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>41820</v>
+        <v>41819</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1301,7 +1245,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>41827</v>
+        <v>41826</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1309,7 +1253,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>41834</v>
+        <v>41833</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1317,7 +1261,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>41841</v>
+        <v>41840</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1325,7 +1269,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>41848</v>
+        <v>41847</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1333,7 +1277,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>41855</v>
+        <v>41854</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1341,7 +1285,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>41862</v>
+        <v>41861</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1349,7 +1293,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>41869</v>
+        <v>41868</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1357,7 +1301,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>41876</v>
+        <v>41875</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1365,7 +1309,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>41883</v>
+        <v>41882</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1373,7 +1317,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41890</v>
+        <v>41889</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1381,7 +1325,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41897</v>
+        <v>41896</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1389,7 +1333,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41904</v>
+        <v>41903</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1397,7 +1341,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41911</v>
+        <v>41910</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1405,7 +1349,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41918</v>
+        <v>41917</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1413,7 +1357,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41925</v>
+        <v>41924</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1421,7 +1365,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41932</v>
+        <v>41931</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1429,7 +1373,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41939</v>
+        <v>41938</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1437,7 +1381,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41946</v>
+        <v>41945</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1445,7 +1389,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41953</v>
+        <v>41952</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1453,7 +1397,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41960</v>
+        <v>41959</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1461,7 +1405,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41967</v>
+        <v>41966</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1469,7 +1413,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41974</v>
+        <v>41973</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1477,7 +1421,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41981</v>
+        <v>41980</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1485,7 +1429,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41988</v>
+        <v>41987</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1493,7 +1437,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41995</v>
+        <v>41994</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1501,7 +1445,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1509,7 +1453,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>42009</v>
+        <v>42008</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1517,7 +1461,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>42016</v>
+        <v>42015</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1525,7 +1469,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>42023</v>
+        <v>42022</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1533,7 +1477,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>42030</v>
+        <v>42029</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1541,7 +1485,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>42037</v>
+        <v>42036</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1549,7 +1493,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>42044</v>
+        <v>42043</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1557,7 +1501,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>42051</v>
+        <v>42050</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1565,7 +1509,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>42058</v>
+        <v>42057</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1573,7 +1517,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>42065</v>
+        <v>42064</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1581,7 +1525,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>42072</v>
+        <v>42071</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1589,7 +1533,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>42079</v>
+        <v>42078</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1597,7 +1541,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>42086</v>
+        <v>42085</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1605,7 +1549,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>42093</v>
+        <v>42092</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1613,7 +1557,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>42100</v>
+        <v>42099</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1621,7 +1565,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>42107</v>
+        <v>42106</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1629,7 +1573,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>42114</v>
+        <v>42113</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1637,7 +1581,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>42121</v>
+        <v>42120</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -1645,7 +1589,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>42128</v>
+        <v>42127</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1653,7 +1597,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42135</v>
+        <v>42134</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1661,7 +1605,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42142</v>
+        <v>42141</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1669,7 +1613,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42149</v>
+        <v>42148</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1677,7 +1621,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42156</v>
+        <v>42155</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1685,7 +1629,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42163</v>
+        <v>42162</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1693,7 +1637,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42170</v>
+        <v>42169</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1701,7 +1645,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42177</v>
+        <v>42176</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1709,7 +1653,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42184</v>
+        <v>42183</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1717,7 +1661,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42191</v>
+        <v>42190</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1725,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42198</v>
+        <v>42197</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1733,7 +1677,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42205</v>
+        <v>42204</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1741,7 +1685,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42212</v>
+        <v>42211</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1749,7 +1693,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42219</v>
+        <v>42218</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1757,7 +1701,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42226</v>
+        <v>42225</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1765,7 +1709,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42233</v>
+        <v>42232</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1773,7 +1717,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42240</v>
+        <v>42239</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1781,7 +1725,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1789,7 +1733,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42254</v>
+        <v>42253</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1797,7 +1741,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42261</v>
+        <v>42260</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1805,7 +1749,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42268</v>
+        <v>42267</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1813,7 +1757,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42275</v>
+        <v>42274</v>
       </c>
       <c r="B84">
         <v>1</v>

--- a/docs/trends-paper/wave-counts/canada-wave-counts/second_canada_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/canada-wave-counts/second_canada_wave_counts.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +366,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>wave</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>criteria</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>n_protests</t>
         </is>
@@ -378,21 +383,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Second Canada Wave (Labor)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Toronto Labor Protests 2014/2015</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Second Canada Wave (Labor)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Quebec Labor Protests 2014/2015</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Second Canada Wave (Labor)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Quebec Economy/inequality Protests 2014/2015</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trends-paper/wave-counts/canada-wave-counts/second_canada_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/canada-wave-counts/second_canada_wave_counts.xlsx
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1406,7 @@
         <v>41938</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1614,7 +1614,7 @@
         <v>42120</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
